--- a/time/Орехи.xlsx
+++ b/time/Орехи.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danil\OneDrive\Desktop\Орехи\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93DB432-9077-4B47-B736-780724855DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D64F411-4161-43CF-AC82-9122E59038ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Итого за неделю:</t>
-  </si>
-  <si>
-    <t>21.09.2022 - 23.09.2022</t>
   </si>
   <si>
     <t>не приступил</t>
@@ -153,12 +150,6 @@
     <t>Оформление заказа доставка курьером</t>
   </si>
   <si>
-    <t>Оформление заказа доставка новая почта</t>
-  </si>
-  <si>
-    <t>Оформление заказа юр.лицо.доставка самовызов</t>
-  </si>
-  <si>
     <t>Вход</t>
   </si>
   <si>
@@ -252,10 +243,13 @@
     <t>30</t>
   </si>
   <si>
-    <t>31</t>
+    <t>Личный кабинет история транзакций</t>
   </si>
   <si>
-    <t>Личный кабинет история транзакций</t>
+    <t>изучение джава скрипт</t>
+  </si>
+  <si>
+    <t>21.09.2022 - 09.10.2022</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J966"/>
+  <dimension ref="A1:J962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1497,20 +1491,20 @@
     <row r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="79" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="81"/>
       <c r="F2" s="13"/>
       <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
@@ -1552,10 +1546,10 @@
     </row>
     <row r="6" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="72">
@@ -1565,15 +1559,15 @@
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="9">
@@ -1583,15 +1577,15 @@
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24">
@@ -1601,18 +1595,18 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>15</v>
       </c>
       <c r="D9" s="9">
         <v>0.10416666666666667</v>
@@ -1621,14 +1615,14 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="53"/>
       <c r="B10" s="21"/>
       <c r="C10" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="9">
         <v>0.10416666666666667</v>
@@ -1637,18 +1631,18 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="57" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="24">
         <v>6.25E-2</v>
@@ -1657,14 +1651,14 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="25">
         <v>4.1666666666666664E-2</v>
@@ -1673,18 +1667,18 @@
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="9">
         <v>0.20833333333333334</v>
@@ -1693,14 +1687,14 @@
         <v>0.40416666666666662</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="9">
         <v>0.1875</v>
@@ -1709,19 +1703,19 @@
         <v>8.6805555555555566E-2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="53" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="24">
         <v>0.125</v>
@@ -1730,14 +1724,14 @@
         <v>0.13263888888888889</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1746,18 +1740,18 @@
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="9">
         <v>0.10416666666666667</v>
@@ -1766,14 +1760,14 @@
         <v>0.13055555555555556</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59"/>
       <c r="B18" s="30"/>
       <c r="C18" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1782,18 +1776,18 @@
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="9">
         <v>0.10416666666666667</v>
@@ -1802,14 +1796,14 @@
         <v>6.25E-2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1818,18 +1812,18 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1838,14 +1832,14 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="55"/>
       <c r="B22" s="30"/>
       <c r="C22" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="24">
         <v>6.25E-2</v>
@@ -1854,18 +1848,18 @@
         <v>3.1944444444444449E-2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="54" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="25">
         <v>0.10416666666666667</v>
@@ -1874,14 +1868,14 @@
         <v>0.10694444444444444</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="55"/>
       <c r="B24" s="30"/>
       <c r="C24" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="24">
         <v>8.3333333333333329E-2</v>
@@ -1890,18 +1884,18 @@
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="24">
         <v>0.125</v>
@@ -1910,14 +1904,14 @@
         <v>0.12916666666666668</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="53"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="24">
         <v>6.25E-2</v>
@@ -1926,18 +1920,18 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="9">
         <v>0.10416666666666667</v>
@@ -1946,14 +1940,14 @@
         <v>0.10694444444444444</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="53"/>
       <c r="B28" s="30"/>
       <c r="C28" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1962,18 +1956,18 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="9">
         <v>0.10416666666666667</v>
@@ -1982,14 +1976,14 @@
         <v>0.12569444444444444</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="53"/>
       <c r="B30" s="30"/>
       <c r="C30" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="25">
         <v>8.3333333333333329E-2</v>
@@ -1998,18 +1992,18 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>26</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>27</v>
       </c>
       <c r="D31" s="82">
         <v>0.20833333333333334</v>
@@ -2018,14 +2012,14 @@
         <v>0.23472222222222219</v>
       </c>
       <c r="F31" s="88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62"/>
       <c r="B32" s="30"/>
       <c r="C32" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="83"/>
       <c r="E32" s="86"/>
@@ -2035,7 +2029,7 @@
       <c r="A33" s="56"/>
       <c r="B33" s="30"/>
       <c r="C33" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="84"/>
       <c r="E33" s="87"/>
@@ -2045,7 +2039,7 @@
       <c r="A34" s="53"/>
       <c r="B34" s="30"/>
       <c r="C34" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="25">
         <v>4.1666666666666664E-2</v>
@@ -2054,16 +2048,16 @@
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="24">
         <v>6.25E-2</v>
@@ -2072,14 +2066,14 @@
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="53"/>
       <c r="B36" s="30"/>
       <c r="C36" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="9">
         <v>4.1666666666666664E-2</v>
@@ -2088,16 +2082,16 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="24">
         <v>6.25E-2</v>
@@ -2106,14 +2100,14 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="53"/>
       <c r="B38" s="30"/>
       <c r="C38" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="9">
         <v>4.1666666666666664E-2</v>
@@ -2122,16 +2116,16 @@
         <v>3.888888888888889E-2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="9">
         <v>2.0833333333333332E-2</v>
@@ -2140,14 +2134,14 @@
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="62"/>
       <c r="B40" s="30"/>
       <c r="C40" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="9">
         <v>1.3888888888888888E-2</v>
@@ -2156,16 +2150,16 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="24">
         <v>3.4722222222222224E-2</v>
@@ -2174,14 +2168,14 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="53"/>
       <c r="B42" s="30"/>
       <c r="C42" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="9">
         <v>2.0833333333333332E-2</v>
@@ -2190,16 +2184,16 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="25">
         <v>2.7777777777777776E-2</v>
@@ -2208,14 +2202,14 @@
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="53"/>
       <c r="B44" s="30"/>
       <c r="C44" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="9">
         <v>2.0833333333333332E-2</v>
@@ -2224,16 +2218,16 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D45" s="9">
         <v>4.1666666666666664E-2</v>
@@ -2242,14 +2236,14 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="53"/>
       <c r="B46" s="30"/>
       <c r="C46" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="9">
         <v>2.0833333333333332E-2</v>
@@ -2258,12 +2252,12 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="37">
@@ -2276,14 +2270,14 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62"/>
       <c r="B48" s="30"/>
       <c r="C48" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="9">
         <v>1.3888888888888888E-2</v>
@@ -2292,24 +2286,24 @@
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" s="24">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E49" s="40">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5" t="s">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2317,33 +2311,33 @@
       <c r="A50" s="53"/>
       <c r="B50" s="30"/>
       <c r="C50" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="24">
         <v>6.25E-2</v>
       </c>
       <c r="E50" s="42">
-        <v>0</v>
-      </c>
-      <c r="F50" s="5" t="s">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51" s="24">
         <v>6.25E-2</v>
       </c>
       <c r="E51" s="39">
-        <v>0</v>
-      </c>
-      <c r="F51" s="5" t="s">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2351,33 +2345,33 @@
       <c r="A52" s="53"/>
       <c r="B52" s="30"/>
       <c r="C52" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E52" s="39">
-        <v>0</v>
-      </c>
-      <c r="F52" s="5" t="s">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" s="24">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="E53" s="40">
-        <v>0</v>
-      </c>
-      <c r="F53" s="5" t="s">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2385,33 +2379,33 @@
       <c r="A54" s="53"/>
       <c r="B54" s="30"/>
       <c r="C54" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E54" s="42">
-        <v>0</v>
-      </c>
-      <c r="F54" s="5" t="s">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B55" s="30"/>
       <c r="C55" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D55" s="24">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E55" s="39">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5" t="s">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2419,162 +2413,136 @@
       <c r="A56" s="62"/>
       <c r="B56" s="30"/>
       <c r="C56" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="24">
         <v>6.25E-2</v>
       </c>
       <c r="E56" s="43">
-        <v>0</v>
-      </c>
-      <c r="F56" s="5" t="s">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="56" t="s">
-        <v>67</v>
+    <row r="57" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="57" t="s">
+        <v>64</v>
       </c>
       <c r="B57" s="30"/>
       <c r="C57" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="24">
-        <v>6.25E-2</v>
+        <v>38</v>
+      </c>
+      <c r="D57" s="25">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E57" s="39">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5" t="s">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
+    <row r="58" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="54"/>
       <c r="B58" s="30"/>
       <c r="C58" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E58" s="39">
-        <v>0</v>
-      </c>
-      <c r="F58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="25">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E58" s="40">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="57" t="s">
-        <v>68</v>
+    <row r="59" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="54" t="s">
+        <v>65</v>
       </c>
       <c r="B59" s="30"/>
       <c r="C59" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="24">
-        <v>6.25E-2</v>
+        <v>67</v>
+      </c>
+      <c r="D59" s="25">
+        <v>0.20833333333333334</v>
       </c>
       <c r="E59" s="40">
-        <v>0</v>
-      </c>
-      <c r="F59" s="5" t="s">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
+    <row r="60" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="54" t="s">
+        <v>68</v>
+      </c>
       <c r="B60" s="30"/>
       <c r="C60" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E60" s="39">
-        <v>0</v>
-      </c>
-      <c r="F60" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="25">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E60" s="40">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="25">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E61" s="39">
-        <v>1.4583333333333332E-2</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="54"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="25">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E62" s="40">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="25">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E63" s="40">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="6" t="s">
+      <c r="H60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I63" s="6" t="s">
+      <c r="I60" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="61"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29" t="s">
+    <row r="61" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="61"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="7">
-        <f>SUM(D6:D64)</f>
-        <v>3.9270833333333339</v>
-      </c>
-      <c r="I64" s="7">
-        <f>SUM(E6:E64)</f>
-        <v>2.8062499999999999</v>
-      </c>
+      <c r="H61" s="7">
+        <f>SUM(D6:D61)</f>
+        <v>3.9270833333333344</v>
+      </c>
+      <c r="I61" s="7">
+        <f>SUM(E6:E61)</f>
+        <v>3.7888888888888879</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="64"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="64"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="64"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="14"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="64"/>
@@ -9682,35 +9650,15 @@
     </row>
     <row r="953" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A953" s="64"/>
-      <c r="B953" s="19"/>
-      <c r="C953" s="19"/>
-      <c r="D953" s="10"/>
-      <c r="E953" s="46"/>
-      <c r="F953" s="14"/>
     </row>
     <row r="954" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A954" s="64"/>
-      <c r="B954" s="19"/>
-      <c r="C954" s="19"/>
-      <c r="D954" s="10"/>
-      <c r="E954" s="46"/>
-      <c r="F954" s="14"/>
     </row>
     <row r="955" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A955" s="64"/>
-      <c r="B955" s="19"/>
-      <c r="C955" s="19"/>
-      <c r="D955" s="10"/>
-      <c r="E955" s="46"/>
-      <c r="F955" s="14"/>
     </row>
     <row r="956" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A956" s="64"/>
-      <c r="B956" s="19"/>
-      <c r="C956" s="19"/>
-      <c r="D956" s="10"/>
-      <c r="E956" s="46"/>
-      <c r="F956" s="14"/>
     </row>
     <row r="957" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A957" s="64"/>
@@ -9729,18 +9677,6 @@
     </row>
     <row r="962" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A962" s="64"/>
-    </row>
-    <row r="963" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A963" s="64"/>
-    </row>
-    <row r="964" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A964" s="64"/>
-    </row>
-    <row r="965" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A965" s="64"/>
-    </row>
-    <row r="966" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A966" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="4">
